--- a/public/admin/template_import/TEMPLATE IMPORT TAMBAH KARYAWAN BULANAN SP_SPS.xlsx
+++ b/public/admin/template_import/TEMPLATE IMPORT TAMBAH KARYAWAN BULANAN SP_SPS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documents\CATATAN APP HRD\Data Master Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app_karyawan-server\public\admin\template_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08287735-006A-42A6-A85A-CE355A8DFF8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CEC598-2256-4857-863A-5468F6E61563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B56A7086-AF56-421B-A460-E1A98A920965}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
-    <t>ID KARYAWAN</t>
-  </si>
-  <si>
     <t>NAMA</t>
   </si>
   <si>
@@ -211,13 +208,28 @@
   </si>
   <si>
     <t>Silahkan Isi Disini….</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ID KARYAWAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NIK)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +247,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -609,7 +628,7 @@
   <dimension ref="A1:BH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,183 +684,183 @@
     <col min="59" max="59" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -1028,7 +1047,7 @@
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4"/>
       <c r="K3" s="5"/>
@@ -1161,5 +1180,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/admin/template_import/TEMPLATE IMPORT TAMBAH KARYAWAN BULANAN SP_SPS.xlsx
+++ b/public/admin/template_import/TEMPLATE IMPORT TAMBAH KARYAWAN BULANAN SP_SPS.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app_karyawan-server\public\admin\template_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CEC598-2256-4857-863A-5468F6E61563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68119A70-45E7-4B8B-AED1-4DDC1063C203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B56A7086-AF56-421B-A460-E1A98A920965}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B56A7086-AF56-421B-A460-E1A98A920965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>NAMA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>NIK</t>
   </si>
@@ -45,18 +42,12 @@
     <t>NAMA LENGKAP</t>
   </si>
   <si>
-    <t>MOTTO</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
     <t>TELEPON</t>
   </si>
   <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
     <t>TEMPAT LAHIR</t>
   </si>
   <si>
@@ -186,18 +177,12 @@
     <t>JABATAN 5</t>
   </si>
   <si>
-    <t>BPJS KETENAGAKERJAAN</t>
-  </si>
-  <si>
     <t>NO BPJS KETENAGAKERJAAN</t>
   </si>
   <si>
     <t>BPJS PENSIUN</t>
   </si>
   <si>
-    <t>BPJS KESEHATAN</t>
-  </si>
-  <si>
     <t>NO BPJS KESEHATAN</t>
   </si>
   <si>
@@ -210,39 +195,65 @@
     <t>Silahkan Isi Disini….</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">ID KARYAWAN </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NIK)</t>
-    </r>
+    <t>ID KARYAWAN</t>
+  </si>
+  <si>
+    <t>AGAMA</t>
+  </si>
+  <si>
+    <t>GOLONGAN DARAH</t>
+  </si>
+  <si>
+    <t>NOMOR WA</t>
+  </si>
+  <si>
+    <t>PROVINSI DOMISILI</t>
+  </si>
+  <si>
+    <t>KABUPATEN/KOTA DOMISILI</t>
+  </si>
+  <si>
+    <t>KECAMATAN DOMISILI</t>
+  </si>
+  <si>
+    <t>DESA DOMISILI</t>
+  </si>
+  <si>
+    <t>RT DOMISILI</t>
+  </si>
+  <si>
+    <t>RW DOMISILI</t>
+  </si>
+  <si>
+    <t>KETERANGAN ALAMAT DOMISILI</t>
+  </si>
+  <si>
+    <t>NAMA PEMILIK REKENING</t>
+  </si>
+  <si>
+    <t>NAMA PEMILIK NPWP</t>
+  </si>
+  <si>
+    <t>NAMA PEMILIK BPJS KETENAGAKERJAAN</t>
+  </si>
+  <si>
+    <t>NAMA PEMILIK BPJS KESEHATAN</t>
+  </si>
+  <si>
+    <t>TEMPLATE UPLOAD DATA KARYAWAN BULANAN SP_SPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -253,12 +264,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,33 +322,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6192813E-66FF-45D7-946D-8EB636D7B6A5}">
-  <dimension ref="A1:BH16"/>
+  <dimension ref="A1:BP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,499 +725,350 @@
     <col min="59" max="59" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:68" ht="18" x14ac:dyDescent="0.35">
+      <c r="E1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="V2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BK2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BM2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BN2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BP2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>3</v>
-      </c>
-      <c r="E2" s="10">
-        <v>4</v>
-      </c>
-      <c r="F2" s="10">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10">
-        <v>7</v>
-      </c>
-      <c r="I2" s="10">
-        <v>8</v>
-      </c>
-      <c r="J2" s="10">
-        <v>9</v>
-      </c>
-      <c r="K2" s="10">
-        <v>10</v>
-      </c>
-      <c r="L2" s="10">
-        <v>11</v>
-      </c>
-      <c r="M2" s="10">
-        <v>12</v>
-      </c>
-      <c r="N2" s="10">
-        <v>13</v>
-      </c>
-      <c r="O2" s="10">
-        <v>14</v>
-      </c>
-      <c r="P2" s="10">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>16</v>
-      </c>
-      <c r="R2" s="10">
-        <v>17</v>
-      </c>
-      <c r="S2" s="10">
-        <v>18</v>
-      </c>
-      <c r="T2" s="10">
-        <v>19</v>
-      </c>
-      <c r="U2" s="10">
-        <v>20</v>
-      </c>
-      <c r="V2" s="10">
-        <v>21</v>
-      </c>
-      <c r="W2" s="10">
-        <v>22</v>
-      </c>
-      <c r="X2" s="10">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="10">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="10">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="10">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="10">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="10">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="10">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="10">
-        <v>31</v>
-      </c>
-      <c r="AG2" s="10">
-        <v>32</v>
-      </c>
-      <c r="AH2" s="10">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="10">
-        <v>34</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>35</v>
-      </c>
-      <c r="AK2" s="10">
-        <v>36</v>
-      </c>
-      <c r="AL2" s="10">
-        <v>37</v>
-      </c>
-      <c r="AM2" s="10">
-        <v>38</v>
-      </c>
-      <c r="AN2" s="10">
-        <v>39</v>
-      </c>
-      <c r="AO2" s="10">
-        <v>40</v>
-      </c>
-      <c r="AP2" s="10">
-        <v>41</v>
-      </c>
-      <c r="AQ2" s="10">
-        <v>42</v>
-      </c>
-      <c r="AR2" s="10">
-        <v>43</v>
-      </c>
-      <c r="AS2" s="10">
-        <v>44</v>
-      </c>
-      <c r="AT2" s="10">
-        <v>45</v>
-      </c>
-      <c r="AU2" s="10">
-        <v>46</v>
-      </c>
-      <c r="AV2" s="10">
-        <v>47</v>
-      </c>
-      <c r="AW2" s="10">
-        <v>48</v>
-      </c>
-      <c r="AX2" s="10">
-        <v>49</v>
-      </c>
-      <c r="AY2" s="10">
-        <v>50</v>
-      </c>
-      <c r="AZ2" s="10">
-        <v>51</v>
-      </c>
-      <c r="BA2" s="10">
-        <v>52</v>
-      </c>
-      <c r="BB2" s="10">
-        <v>53</v>
-      </c>
-      <c r="BC2" s="10">
-        <v>54</v>
-      </c>
-      <c r="BD2" s="10">
-        <v>55</v>
-      </c>
-      <c r="BE2" s="10">
-        <v>56</v>
-      </c>
-      <c r="BF2" s="10">
-        <v>57</v>
-      </c>
-      <c r="BG2" s="10">
-        <v>58</v>
-      </c>
-      <c r="BH2" s="10">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="W3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="6"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="W4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="W5" s="6"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
-      <c r="K6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="W6" s="6"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D7" s="4"/>
-      <c r="K7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="W7" s="6"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="W8" s="6"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="6"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D9" s="4"/>
-      <c r="K9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="W9" s="6"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="6"/>
-      <c r="BE9" s="8"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="W10" s="6"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="6"/>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="W11" s="6"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="6"/>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="W12" s="6"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="6"/>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="W13" s="6"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="6"/>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="W14" s="6"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="6"/>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D15" s="4"/>
-      <c r="K15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="W15" s="6"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="6"/>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="D16" s="4"/>
-      <c r="K16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="W16" s="6"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="6"/>
-      <c r="AE16" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="W3" s="13"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="13"/>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="3"/>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="W5" s="3"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="3"/>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="W6" s="3"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="3"/>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="3"/>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="W8" s="3"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="3"/>
+      <c r="BE9" s="5"/>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="W10" s="3"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="W11" s="3"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="W12" s="3"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="3"/>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="W13" s="3"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="3"/>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="W14" s="3"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="3"/>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="K15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="W15" s="3"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="3"/>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="K16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="3"/>
+      <c r="AE16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
